--- a/Monopy.PreceRateWage/Monopy.PreceRateWage.WinForm/Excel/模板一厂——学徒——入职表（日）.xlsx
+++ b/Monopy.PreceRateWage/Monopy.PreceRateWage.WinForm/Excel/模板一厂——学徒——入职表（日）.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>一工厂XXXX年XX月份YY车间入职补助表</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>补助天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -145,9 +149,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,7 +485,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="D8:E8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -499,25 +500,28 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
